--- a/attendance-files/SIP/SIP (E) Attendance Sheet.xlsx
+++ b/attendance-files/SIP/SIP (E) Attendance Sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="170">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -1599,9 +1599,15 @@
       <c r="H7" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
+      <c r="I7" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L7" s="30"/>
       <c r="M7" s="30"/>
       <c r="N7" s="30"/>
@@ -1635,7 +1641,7 @@
       </c>
       <c r="E8" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="28" t="s">
         <v>20</v>
@@ -1643,9 +1649,15 @@
       <c r="H8" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
+      <c r="I8" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L8" s="34"/>
       <c r="M8" s="34"/>
       <c r="N8" s="34"/>
@@ -1687,9 +1699,15 @@
       <c r="H9" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
+      <c r="I9" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L9" s="34"/>
       <c r="M9" s="34"/>
       <c r="N9" s="34"/>
@@ -1731,9 +1749,15 @@
       <c r="H10" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34"/>
+      <c r="I10" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L10" s="34"/>
       <c r="M10" s="34"/>
       <c r="N10" s="34"/>
@@ -1767,7 +1791,7 @@
       </c>
       <c r="E11" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" s="28" t="s">
         <v>20</v>
@@ -1775,9 +1799,15 @@
       <c r="H11" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
+      <c r="I11" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="L11" s="34"/>
       <c r="M11" s="34"/>
       <c r="N11" s="34"/>
@@ -1819,9 +1849,15 @@
       <c r="H12" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="34"/>
+      <c r="I12" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L12" s="34"/>
       <c r="M12" s="34"/>
       <c r="N12" s="34"/>
@@ -1855,7 +1891,7 @@
       </c>
       <c r="E13" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" s="28" t="s">
         <v>20</v>
@@ -1863,9 +1899,15 @@
       <c r="H13" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34"/>
+      <c r="I13" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="L13" s="34"/>
       <c r="M13" s="34"/>
       <c r="N13" s="34"/>
@@ -1899,7 +1941,7 @@
       </c>
       <c r="E14" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G14" s="28" t="s">
         <v>21</v>
@@ -1907,9 +1949,15 @@
       <c r="H14" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
+      <c r="I14" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="L14" s="34"/>
       <c r="M14" s="34"/>
       <c r="N14" s="34"/>
@@ -1951,9 +1999,15 @@
       <c r="H15" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="34"/>
+      <c r="I15" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L15" s="34"/>
       <c r="M15" s="34"/>
       <c r="N15" s="34"/>
@@ -1995,9 +2049,15 @@
       <c r="H16" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="34"/>
+      <c r="I16" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K16" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L16" s="34"/>
       <c r="M16" s="34"/>
       <c r="N16" s="34"/>
@@ -2031,7 +2091,7 @@
       </c>
       <c r="E17" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" s="28" t="s">
         <v>20</v>
@@ -2039,9 +2099,15 @@
       <c r="H17" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="34"/>
+      <c r="I17" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J17" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K17" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="L17" s="34"/>
       <c r="M17" s="34"/>
       <c r="N17" s="34"/>
@@ -2075,7 +2141,7 @@
       </c>
       <c r="E18" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" s="28" t="s">
         <v>20</v>
@@ -2083,9 +2149,15 @@
       <c r="H18" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I18" s="34"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="34"/>
+      <c r="I18" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J18" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="K18" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L18" s="34"/>
       <c r="M18" s="34"/>
       <c r="N18" s="34"/>
@@ -2127,9 +2199,15 @@
       <c r="H19" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I19" s="34"/>
-      <c r="J19" s="34"/>
-      <c r="K19" s="34"/>
+      <c r="I19" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J19" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K19" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L19" s="34"/>
       <c r="M19" s="34"/>
       <c r="N19" s="34"/>
@@ -2171,9 +2249,15 @@
       <c r="H20" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I20" s="34"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="34"/>
+      <c r="I20" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J20" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K20" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L20" s="34"/>
       <c r="M20" s="34"/>
       <c r="N20" s="34"/>
@@ -2215,9 +2299,15 @@
       <c r="H21" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I21" s="34"/>
-      <c r="J21" s="34"/>
-      <c r="K21" s="34"/>
+      <c r="I21" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J21" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K21" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L21" s="34"/>
       <c r="M21" s="34"/>
       <c r="N21" s="34"/>
@@ -2251,7 +2341,7 @@
       </c>
       <c r="E22" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" s="28" t="s">
         <v>20</v>
@@ -2259,9 +2349,15 @@
       <c r="H22" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I22" s="34"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="34"/>
+      <c r="I22" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J22" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="K22" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L22" s="34"/>
       <c r="M22" s="34"/>
       <c r="N22" s="34"/>
@@ -2303,9 +2399,15 @@
       <c r="H23" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I23" s="34"/>
-      <c r="J23" s="34"/>
-      <c r="K23" s="34"/>
+      <c r="I23" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J23" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K23" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L23" s="34"/>
       <c r="M23" s="34"/>
       <c r="N23" s="34"/>
@@ -2347,9 +2449,15 @@
       <c r="H24" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I24" s="34"/>
-      <c r="J24" s="34"/>
-      <c r="K24" s="34"/>
+      <c r="I24" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J24" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K24" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L24" s="34"/>
       <c r="M24" s="34"/>
       <c r="N24" s="34"/>
@@ -2391,9 +2499,15 @@
       <c r="H25" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I25" s="34"/>
-      <c r="J25" s="34"/>
-      <c r="K25" s="34"/>
+      <c r="I25" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J25" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K25" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L25" s="34"/>
       <c r="M25" s="34"/>
       <c r="N25" s="34"/>
@@ -2427,7 +2541,7 @@
       </c>
       <c r="E26" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" s="28" t="s">
         <v>20</v>
@@ -2435,9 +2549,15 @@
       <c r="H26" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I26" s="34"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="34"/>
+      <c r="I26" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J26" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K26" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="L26" s="34"/>
       <c r="M26" s="34"/>
       <c r="N26" s="34"/>
@@ -2471,7 +2591,7 @@
       </c>
       <c r="E27" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" s="28" t="s">
         <v>20</v>
@@ -2479,9 +2599,15 @@
       <c r="H27" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I27" s="34"/>
-      <c r="J27" s="34"/>
-      <c r="K27" s="34"/>
+      <c r="I27" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J27" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K27" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="L27" s="34"/>
       <c r="M27" s="34"/>
       <c r="N27" s="34"/>
@@ -2515,7 +2641,7 @@
       </c>
       <c r="E28" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G28" s="28" t="s">
         <v>21</v>
@@ -2523,9 +2649,15 @@
       <c r="H28" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I28" s="34"/>
-      <c r="J28" s="34"/>
-      <c r="K28" s="34"/>
+      <c r="I28" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J28" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="K28" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L28" s="34"/>
       <c r="M28" s="34"/>
       <c r="N28" s="34"/>
@@ -2559,7 +2691,7 @@
       </c>
       <c r="E29" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" s="28" t="s">
         <v>20</v>
@@ -2567,9 +2699,15 @@
       <c r="H29" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I29" s="34"/>
-      <c r="J29" s="34"/>
-      <c r="K29" s="34"/>
+      <c r="I29" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J29" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K29" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="L29" s="34"/>
       <c r="M29" s="34"/>
       <c r="N29" s="34"/>
@@ -2611,9 +2749,15 @@
       <c r="H30" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I30" s="34"/>
-      <c r="J30" s="34"/>
-      <c r="K30" s="34"/>
+      <c r="I30" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J30" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K30" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L30" s="34"/>
       <c r="M30" s="34"/>
       <c r="N30" s="34"/>
@@ -2647,7 +2791,7 @@
       </c>
       <c r="E31" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" s="28" t="s">
         <v>20</v>
@@ -2655,9 +2799,15 @@
       <c r="H31" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I31" s="34"/>
-      <c r="J31" s="34"/>
-      <c r="K31" s="34"/>
+      <c r="I31" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J31" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K31" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="L31" s="34"/>
       <c r="M31" s="34"/>
       <c r="N31" s="34"/>
@@ -2691,7 +2841,7 @@
       </c>
       <c r="E32" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G32" s="28" t="s">
         <v>20</v>
@@ -2699,9 +2849,15 @@
       <c r="H32" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I32" s="34"/>
-      <c r="J32" s="34"/>
-      <c r="K32" s="34"/>
+      <c r="I32" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J32" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K32" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="L32" s="34"/>
       <c r="M32" s="34"/>
       <c r="N32" s="34"/>
@@ -2743,9 +2899,15 @@
       <c r="H33" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I33" s="34"/>
-      <c r="J33" s="34"/>
-      <c r="K33" s="34"/>
+      <c r="I33" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J33" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K33" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L33" s="34"/>
       <c r="M33" s="34"/>
       <c r="N33" s="34"/>
@@ -2779,7 +2941,7 @@
       </c>
       <c r="E34" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G34" s="28" t="s">
         <v>20</v>
@@ -2787,9 +2949,15 @@
       <c r="H34" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I34" s="34"/>
-      <c r="J34" s="34"/>
-      <c r="K34" s="34"/>
+      <c r="I34" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J34" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="K34" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="L34" s="34"/>
       <c r="M34" s="34"/>
       <c r="N34" s="34"/>
@@ -2831,9 +2999,15 @@
       <c r="H35" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I35" s="34"/>
-      <c r="J35" s="34"/>
-      <c r="K35" s="34"/>
+      <c r="I35" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J35" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K35" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L35" s="34"/>
       <c r="M35" s="34"/>
       <c r="N35" s="34"/>
@@ -2867,7 +3041,7 @@
       </c>
       <c r="E36" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G36" s="28" t="s">
         <v>20</v>
@@ -2875,9 +3049,15 @@
       <c r="H36" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I36" s="34"/>
-      <c r="J36" s="34"/>
-      <c r="K36" s="34"/>
+      <c r="I36" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J36" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="K36" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L36" s="34"/>
       <c r="M36" s="34"/>
       <c r="N36" s="34"/>
@@ -2919,9 +3099,15 @@
       <c r="H37" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I37" s="34"/>
-      <c r="J37" s="34"/>
-      <c r="K37" s="34"/>
+      <c r="I37" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J37" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K37" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L37" s="34"/>
       <c r="M37" s="34"/>
       <c r="N37" s="34"/>
@@ -2955,7 +3141,7 @@
       </c>
       <c r="E38" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G38" s="28" t="s">
         <v>20</v>
@@ -2963,9 +3149,15 @@
       <c r="H38" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I38" s="34"/>
-      <c r="J38" s="34"/>
-      <c r="K38" s="34"/>
+      <c r="I38" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J38" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="K38" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L38" s="34"/>
       <c r="M38" s="34"/>
       <c r="N38" s="34"/>
@@ -3007,9 +3199,15 @@
       <c r="H39" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I39" s="34"/>
-      <c r="J39" s="34"/>
-      <c r="K39" s="34"/>
+      <c r="I39" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J39" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K39" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L39" s="34"/>
       <c r="M39" s="34"/>
       <c r="N39" s="34"/>
@@ -3051,9 +3249,15 @@
       <c r="H40" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I40" s="34"/>
-      <c r="J40" s="34"/>
-      <c r="K40" s="34"/>
+      <c r="I40" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J40" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K40" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L40" s="34"/>
       <c r="M40" s="34"/>
       <c r="N40" s="34"/>
@@ -3087,7 +3291,7 @@
       </c>
       <c r="E41" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G41" s="28" t="s">
         <v>20</v>
@@ -3095,9 +3299,15 @@
       <c r="H41" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I41" s="34"/>
-      <c r="J41" s="34"/>
-      <c r="K41" s="34"/>
+      <c r="I41" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="J41" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K41" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L41" s="34"/>
       <c r="M41" s="34"/>
       <c r="N41" s="34"/>
@@ -3139,9 +3349,15 @@
       <c r="H42" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I42" s="34"/>
-      <c r="J42" s="34"/>
-      <c r="K42" s="34"/>
+      <c r="I42" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J42" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K42" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L42" s="34"/>
       <c r="M42" s="34"/>
       <c r="N42" s="34"/>
@@ -3175,7 +3391,7 @@
       </c>
       <c r="E43" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G43" s="28" t="s">
         <v>20</v>
@@ -3183,9 +3399,15 @@
       <c r="H43" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I43" s="34"/>
-      <c r="J43" s="34"/>
-      <c r="K43" s="34"/>
+      <c r="I43" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J43" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K43" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="L43" s="34"/>
       <c r="M43" s="34"/>
       <c r="N43" s="34"/>
@@ -3219,7 +3441,7 @@
       </c>
       <c r="E44" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G44" s="28" t="s">
         <v>20</v>
@@ -3227,9 +3449,15 @@
       <c r="H44" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I44" s="34"/>
-      <c r="J44" s="34"/>
-      <c r="K44" s="34"/>
+      <c r="I44" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J44" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K44" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="L44" s="34"/>
       <c r="M44" s="34"/>
       <c r="N44" s="34"/>
@@ -3263,7 +3491,7 @@
       </c>
       <c r="E45" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G45" s="28" t="s">
         <v>20</v>
@@ -3271,9 +3499,15 @@
       <c r="H45" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I45" s="34"/>
-      <c r="J45" s="34"/>
-      <c r="K45" s="34"/>
+      <c r="I45" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J45" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K45" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="L45" s="34"/>
       <c r="M45" s="34"/>
       <c r="N45" s="34"/>
@@ -3315,9 +3549,15 @@
       <c r="H46" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I46" s="34"/>
-      <c r="J46" s="34"/>
-      <c r="K46" s="34"/>
+      <c r="I46" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J46" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K46" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L46" s="34"/>
       <c r="M46" s="34"/>
       <c r="N46" s="34"/>
@@ -3359,9 +3599,15 @@
       <c r="H47" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I47" s="34"/>
-      <c r="J47" s="34"/>
-      <c r="K47" s="34"/>
+      <c r="I47" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J47" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K47" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L47" s="34"/>
       <c r="M47" s="34"/>
       <c r="N47" s="34"/>
@@ -3403,9 +3649,15 @@
       <c r="H48" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I48" s="34"/>
-      <c r="J48" s="34"/>
-      <c r="K48" s="34"/>
+      <c r="I48" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J48" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K48" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L48" s="34"/>
       <c r="M48" s="34"/>
       <c r="N48" s="34"/>
@@ -3447,9 +3699,15 @@
       <c r="H49" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I49" s="34"/>
-      <c r="J49" s="34"/>
-      <c r="K49" s="34"/>
+      <c r="I49" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J49" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K49" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L49" s="34"/>
       <c r="M49" s="34"/>
       <c r="N49" s="34"/>
@@ -3483,7 +3741,7 @@
       </c>
       <c r="E50" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G50" s="28" t="s">
         <v>20</v>
@@ -3491,9 +3749,15 @@
       <c r="H50" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I50" s="34"/>
-      <c r="J50" s="34"/>
-      <c r="K50" s="34"/>
+      <c r="I50" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="J50" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K50" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L50" s="34"/>
       <c r="M50" s="34"/>
       <c r="N50" s="34"/>
@@ -3527,7 +3791,7 @@
       </c>
       <c r="E51" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G51" s="28" t="s">
         <v>20</v>
@@ -3535,9 +3799,15 @@
       <c r="H51" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I51" s="34"/>
-      <c r="J51" s="34"/>
-      <c r="K51" s="34"/>
+      <c r="I51" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J51" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="K51" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L51" s="34"/>
       <c r="M51" s="34"/>
       <c r="N51" s="34"/>
@@ -3571,7 +3841,7 @@
       </c>
       <c r="E52" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G52" s="28" t="s">
         <v>20</v>
@@ -3579,9 +3849,15 @@
       <c r="H52" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I52" s="34"/>
-      <c r="J52" s="34"/>
-      <c r="K52" s="34"/>
+      <c r="I52" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J52" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K52" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="L52" s="34"/>
       <c r="M52" s="34"/>
       <c r="N52" s="34"/>
@@ -3615,7 +3891,7 @@
       </c>
       <c r="E53" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G53" s="28" t="s">
         <v>20</v>
@@ -3623,9 +3899,15 @@
       <c r="H53" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I53" s="34"/>
-      <c r="J53" s="34"/>
-      <c r="K53" s="34"/>
+      <c r="I53" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J53" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="K53" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L53" s="34"/>
       <c r="M53" s="34"/>
       <c r="N53" s="34"/>
@@ -3659,7 +3941,7 @@
       </c>
       <c r="E54" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G54" s="28" t="s">
         <v>21</v>
@@ -3667,9 +3949,15 @@
       <c r="H54" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I54" s="34"/>
-      <c r="J54" s="34"/>
-      <c r="K54" s="34"/>
+      <c r="I54" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J54" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="K54" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L54" s="34"/>
       <c r="M54" s="34"/>
       <c r="N54" s="34"/>
@@ -3703,7 +3991,7 @@
       </c>
       <c r="E55" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G55" s="28" t="s">
         <v>20</v>
@@ -3711,9 +3999,15 @@
       <c r="H55" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I55" s="34"/>
-      <c r="J55" s="34"/>
-      <c r="K55" s="34"/>
+      <c r="I55" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J55" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K55" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="L55" s="34"/>
       <c r="M55" s="34"/>
       <c r="N55" s="34"/>
@@ -3747,7 +4041,7 @@
       </c>
       <c r="E56" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G56" s="28" t="s">
         <v>20</v>
@@ -3755,9 +4049,15 @@
       <c r="H56" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I56" s="34"/>
-      <c r="J56" s="34"/>
-      <c r="K56" s="34"/>
+      <c r="I56" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J56" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="K56" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L56" s="34"/>
       <c r="M56" s="34"/>
       <c r="N56" s="34"/>
@@ -3791,7 +4091,7 @@
       </c>
       <c r="E57" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G57" s="28" t="s">
         <v>20</v>
@@ -3799,9 +4099,15 @@
       <c r="H57" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I57" s="34"/>
-      <c r="J57" s="34"/>
-      <c r="K57" s="34"/>
+      <c r="I57" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J57" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K57" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="L57" s="34"/>
       <c r="M57" s="34"/>
       <c r="N57" s="34"/>
@@ -3843,9 +4149,15 @@
       <c r="H58" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I58" s="34"/>
-      <c r="J58" s="34"/>
-      <c r="K58" s="34"/>
+      <c r="I58" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J58" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K58" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L58" s="34"/>
       <c r="M58" s="34"/>
       <c r="N58" s="34"/>
@@ -3887,9 +4199,15 @@
       <c r="H59" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I59" s="34"/>
-      <c r="J59" s="34"/>
-      <c r="K59" s="34"/>
+      <c r="I59" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J59" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K59" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L59" s="34"/>
       <c r="M59" s="34"/>
       <c r="N59" s="34"/>
@@ -3931,9 +4249,15 @@
       <c r="H60" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I60" s="34"/>
-      <c r="J60" s="34"/>
-      <c r="K60" s="34"/>
+      <c r="I60" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J60" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K60" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L60" s="34"/>
       <c r="M60" s="34"/>
       <c r="N60" s="34"/>
@@ -3975,9 +4299,15 @@
       <c r="H61" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I61" s="34"/>
-      <c r="J61" s="34"/>
-      <c r="K61" s="34"/>
+      <c r="I61" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J61" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K61" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L61" s="34"/>
       <c r="M61" s="34"/>
       <c r="N61" s="34"/>
@@ -4011,7 +4341,7 @@
       </c>
       <c r="E62" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G62" s="28" t="s">
         <v>20</v>
@@ -4019,9 +4349,15 @@
       <c r="H62" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I62" s="34"/>
-      <c r="J62" s="34"/>
-      <c r="K62" s="34"/>
+      <c r="I62" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J62" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="K62" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L62" s="34"/>
       <c r="M62" s="34"/>
       <c r="N62" s="34"/>
@@ -4055,7 +4391,7 @@
       </c>
       <c r="E63" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G63" s="28" t="s">
         <v>20</v>
@@ -4063,9 +4399,15 @@
       <c r="H63" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I63" s="34"/>
-      <c r="J63" s="34"/>
-      <c r="K63" s="34"/>
+      <c r="I63" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J63" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="K63" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L63" s="34"/>
       <c r="M63" s="34"/>
       <c r="N63" s="34"/>
@@ -4107,9 +4449,15 @@
       <c r="H64" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I64" s="34"/>
-      <c r="J64" s="34"/>
-      <c r="K64" s="34"/>
+      <c r="I64" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J64" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K64" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L64" s="34"/>
       <c r="M64" s="34"/>
       <c r="N64" s="34"/>
@@ -4143,7 +4491,7 @@
       </c>
       <c r="E65" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G65" s="28" t="s">
         <v>21</v>
@@ -4151,9 +4499,15 @@
       <c r="H65" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I65" s="34"/>
-      <c r="J65" s="34"/>
-      <c r="K65" s="34"/>
+      <c r="I65" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J65" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="K65" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L65" s="34"/>
       <c r="M65" s="34"/>
       <c r="N65" s="34"/>
@@ -4187,7 +4541,7 @@
       </c>
       <c r="E66" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G66" s="28" t="s">
         <v>21</v>
@@ -4195,9 +4549,15 @@
       <c r="H66" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I66" s="34"/>
-      <c r="J66" s="34"/>
-      <c r="K66" s="34"/>
+      <c r="I66" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="J66" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="K66" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="L66" s="34"/>
       <c r="M66" s="34"/>
       <c r="N66" s="34"/>
@@ -4239,9 +4599,15 @@
       <c r="H67" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I67" s="34"/>
-      <c r="J67" s="34"/>
-      <c r="K67" s="34"/>
+      <c r="I67" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J67" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K67" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L67" s="34"/>
       <c r="M67" s="34"/>
       <c r="N67" s="34"/>
@@ -4275,7 +4641,7 @@
       </c>
       <c r="E68" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G68" s="28" t="s">
         <v>21</v>
@@ -4283,9 +4649,15 @@
       <c r="H68" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I68" s="34"/>
-      <c r="J68" s="34"/>
-      <c r="K68" s="34"/>
+      <c r="I68" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J68" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K68" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="L68" s="34"/>
       <c r="M68" s="34"/>
       <c r="N68" s="34"/>
@@ -4319,7 +4691,7 @@
       </c>
       <c r="E69" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G69" s="28" t="s">
         <v>20</v>
@@ -4327,9 +4699,15 @@
       <c r="H69" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I69" s="34"/>
-      <c r="J69" s="34"/>
-      <c r="K69" s="34"/>
+      <c r="I69" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J69" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K69" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="L69" s="34"/>
       <c r="M69" s="34"/>
       <c r="N69" s="34"/>
@@ -4371,9 +4749,15 @@
       <c r="H70" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I70" s="34"/>
-      <c r="J70" s="34"/>
-      <c r="K70" s="34"/>
+      <c r="I70" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J70" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K70" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L70" s="34"/>
       <c r="M70" s="34"/>
       <c r="N70" s="34"/>
@@ -4415,9 +4799,15 @@
       <c r="H71" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I71" s="34"/>
-      <c r="J71" s="34"/>
-      <c r="K71" s="34"/>
+      <c r="I71" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J71" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K71" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L71" s="34"/>
       <c r="M71" s="34"/>
       <c r="N71" s="34"/>
@@ -4459,9 +4849,15 @@
       <c r="H72" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I72" s="34"/>
-      <c r="J72" s="34"/>
-      <c r="K72" s="34"/>
+      <c r="I72" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J72" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K72" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L72" s="34"/>
       <c r="M72" s="34"/>
       <c r="N72" s="34"/>
@@ -4503,9 +4899,15 @@
       <c r="H73" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I73" s="34"/>
-      <c r="J73" s="34"/>
-      <c r="K73" s="34"/>
+      <c r="I73" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J73" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K73" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L73" s="34"/>
       <c r="M73" s="34"/>
       <c r="N73" s="34"/>
@@ -4547,9 +4949,15 @@
       <c r="H74" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I74" s="34"/>
-      <c r="J74" s="34"/>
-      <c r="K74" s="34"/>
+      <c r="I74" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J74" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K74" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L74" s="34"/>
       <c r="M74" s="34"/>
       <c r="N74" s="34"/>
@@ -4583,7 +4991,7 @@
       </c>
       <c r="E75" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G75" s="28" t="s">
         <v>20</v>
@@ -4591,9 +4999,15 @@
       <c r="H75" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I75" s="34"/>
-      <c r="J75" s="34"/>
-      <c r="K75" s="34"/>
+      <c r="I75" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J75" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K75" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="L75" s="34"/>
       <c r="M75" s="34"/>
       <c r="N75" s="34"/>
@@ -4635,9 +5049,15 @@
       <c r="H76" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I76" s="34"/>
-      <c r="J76" s="34"/>
-      <c r="K76" s="34"/>
+      <c r="I76" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J76" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K76" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L76" s="34"/>
       <c r="M76" s="34"/>
       <c r="N76" s="34"/>
@@ -4671,7 +5091,7 @@
       </c>
       <c r="E77" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G77" s="28" t="s">
         <v>20</v>
@@ -4679,9 +5099,15 @@
       <c r="H77" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I77" s="34"/>
-      <c r="J77" s="34"/>
-      <c r="K77" s="34"/>
+      <c r="I77" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J77" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K77" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="L77" s="34"/>
       <c r="M77" s="34"/>
       <c r="N77" s="34"/>
@@ -4715,7 +5141,7 @@
       </c>
       <c r="E78" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G78" s="28" t="s">
         <v>20</v>
@@ -4723,9 +5149,15 @@
       <c r="H78" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I78" s="34"/>
-      <c r="J78" s="34"/>
-      <c r="K78" s="34"/>
+      <c r="I78" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J78" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K78" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="L78" s="34"/>
       <c r="M78" s="34"/>
       <c r="N78" s="34"/>
@@ -4759,7 +5191,7 @@
       </c>
       <c r="E79" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G79" s="28" t="s">
         <v>20</v>
@@ -4767,9 +5199,15 @@
       <c r="H79" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I79" s="34"/>
-      <c r="J79" s="34"/>
-      <c r="K79" s="34"/>
+      <c r="I79" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J79" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="K79" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L79" s="34"/>
       <c r="M79" s="34"/>
       <c r="N79" s="34"/>
@@ -4803,7 +5241,7 @@
       </c>
       <c r="E80" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G80" s="28" t="s">
         <v>20</v>
@@ -4811,9 +5249,15 @@
       <c r="H80" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I80" s="34"/>
-      <c r="J80" s="34"/>
-      <c r="K80" s="34"/>
+      <c r="I80" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J80" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K80" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="L80" s="34"/>
       <c r="M80" s="34"/>
       <c r="N80" s="34"/>
@@ -4855,9 +5299,15 @@
       <c r="H81" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I81" s="34"/>
-      <c r="J81" s="34"/>
-      <c r="K81" s="34"/>
+      <c r="I81" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J81" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K81" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L81" s="34"/>
       <c r="M81" s="34"/>
       <c r="N81" s="34"/>
